--- a/Documentation/Arbeitsjournal.xlsx
+++ b/Documentation/Arbeitsjournal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\PA_OutlookFerienassistent\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AFE275-786C-4FFB-A0A6-CBDBD01F6B6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2947021-5897-44CB-B33F-918BC0BF0131}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CB58E78-4AF7-41EA-8659-73B5FA0C15C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CB58E78-4AF7-41EA-8659-73B5FA0C15C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -192,59 +192,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,460 +566,388 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="A6" sqref="A6:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="18">
         <v>43962</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="18">
         <v>43962</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="18">
         <v>43962</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="18">
         <v>43962</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="18">
         <v>43962</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="18">
         <v>43962</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="18">
         <v>43962</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="18">
         <v>43962</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="E6:F7"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A6:B7"/>
@@ -1026,6 +957,78 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
